--- a/downloaded_files/EPES301_Tutorial-35901.xlsx
+++ b/downloaded_files/EPES301_Tutorial-35901.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ahmed Mohamed Hassan Tohamy</x:t>
   </x:si>
   <x:si>
-    <x:t>4230140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد نبيل احمد سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Nabil</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220004</x:t>
   </x:si>
   <x:si>
@@ -96,6 +87,15 @@
     <x:t>Bellal Abdel Allah Fawzy</x:t>
   </x:si>
   <x:si>
+    <x:t>1220236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين احمد عفيفى السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hussein Ahmed Afify Elsayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220240</x:t>
   </x:si>
   <x:si>
@@ -114,15 +114,6 @@
     <x:t>sara ahmed abdelfattah mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ساره عمرو احمد حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sarah Amro Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230203</x:t>
   </x:si>
   <x:si>
@@ -132,15 +123,6 @@
     <x:t>Abdelrahman Sameh Ahmed Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عبدالفتاح عبدالرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman mohamed abdelfatah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230068</x:t>
   </x:si>
   <x:si>
@@ -166,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Mahmoud Safwat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد السيد عزمى يوسف السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Khalid Elsayed Azmy Yousef Elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220081</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -822,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4196623495</x:v>
+        <x:v>45907.4197364583</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4197364583</x:v>
+        <x:v>45907.4869801736</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4869801736</x:v>
+        <x:v>45928.8322783565</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45928.899812963</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1014,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4201295949</x:v>
+        <x:v>45907.4219283218</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4219283218</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4231413542</x:v>
+        <x:v>45912.7651763889</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.4224198727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.7651763889</x:v>
+        <x:v>45928.8978450232</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4224198727</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.4205793981</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4205793981</x:v>
+        <x:v>45907.4197650463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4197650463</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4719599884</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES301_Tutorial-35901.xlsx
+++ b/downloaded_files/EPES301_Tutorial-35901.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Aya Abdel nasser Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال عبدالله فوزى حموده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bellal Abdel Allah Fawzy</x:t>
   </x:si>
   <x:si>
     <x:t>1220236</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -877,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45928.8322783565</x:v>
+        <x:v>45928.899812963</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.899812963</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4200363426</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4200363426</x:v>
+        <x:v>45907.4219283218</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4219283218</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45912.7651763889</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.7651763889</x:v>
+        <x:v>45907.4224198727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4224198727</x:v>
+        <x:v>45928.8978450232</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45928.8978450232</x:v>
+        <x:v>45907.4559436343</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4559436343</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.4200115394</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200115394</x:v>
+        <x:v>45907.4205793981</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4205793981</x:v>
+        <x:v>45907.4197650463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4197650463</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45907.4719599884</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
